--- a/importer/management/commands/tests/fixtures/trade_disputes/new_measures.xlsx
+++ b/importer/management/commands/tests/fixtures/trade_disputes/new_measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="7360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main rebalancing measures" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Additional duties</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Andorra</t>
   </si>
   <si>
     <r>
@@ -64,12 +58,18 @@
   <si>
     <t>CC39</t>
   </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +115,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -246,7 +253,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,6 +306,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -639,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -679,7 +687,7 @@
         <v>1000000000</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="13">
         <v>0.25</v>
@@ -694,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -709,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>2</v>
+      <c r="N4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -723,7 +731,7 @@
         <v>1100000000</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="13">
         <v>0.3</v>
@@ -738,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -755,11 +763,11 @@
       <c r="M5" s="11">
         <v>0.3</v>
       </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
+      <c r="N5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -780,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -809,7 +817,7 @@
         <v>3900000000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9">
         <v>0.01</v>
@@ -824,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -841,11 +849,11 @@
       <c r="M4" s="10">
         <v>0.01</v>
       </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2</v>
+      <c r="N4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="33" customHeight="1"/>
